--- a/biology/Botanique/André_Gosselin/André_Gosselin.xlsx
+++ b/biology/Botanique/André_Gosselin/André_Gosselin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gosselin</t>
+          <t>André_Gosselin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Gosselin est un horticulteur, agronome, professeur, chercheur et entrepreneur québécois[1] né en 1956 à Saint-Laurent-de-l'Île-d'Orléans[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Gosselin est un horticulteur, agronome, professeur, chercheur et entrepreneur québécois né en 1956 à Saint-Laurent-de-l'Île-d'Orléans.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gosselin</t>
+          <t>André_Gosselin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2018 - Chevalier de l'Ordre national du Québec[3]
-2017 - Professeur émérite de l'Université Laval[1]
-2015 - Ordre du Mérite agronomique de l'Ordre des agronomes du Québec[4]
-2009 - Prix Lionel-Boulet[2]
-1995 - Médaille de distinction agronomique de l'Ordre des agronomes du Québec[5]
-Fellow de l'American Society for Horticultural Science[6]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2018 - Chevalier de l'Ordre national du Québec
+2017 - Professeur émérite de l'Université Laval
+2015 - Ordre du Mérite agronomique de l'Ordre des agronomes du Québec
+2009 - Prix Lionel-Boulet
+1995 - Médaille de distinction agronomique de l'Ordre des agronomes du Québec
+Fellow de l'American Society for Horticultural Science</t>
         </is>
       </c>
     </row>
